--- a/biology/Zoologie/Hirondelle_des_Nilgiri/Hirondelle_des_Nilgiri.xlsx
+++ b/biology/Zoologie/Hirondelle_des_Nilgiri/Hirondelle_des_Nilgiri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirundo domicola
 L'Hirondelle des Nilgiri (Hirundo domicola) est une espèce de passereaux de la famille des Hirundinidae. Son aire de répartition s'étend sur le sud de l'Inde (Tamil Nadu et Kerala) et le Sri Lanka.
